--- a/Чек-лист. Управление задачами.xlsx
+++ b/Чек-лист. Управление задачами.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\task.webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C3D7B9-F193-4CE4-9D75-C915B8E1756E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446B1E8-6CD4-43A7-A1ED-177C258222E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="106">
   <si>
     <t>Управление задачами - Чек-лист для проведения функционального тестирования</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Предоставлено для:</t>
-  </si>
-  <si>
-    <t>&lt;название компании Заказчика&gt;</t>
   </si>
   <si>
     <t>Предоставил:</t>
@@ -108,105 +105,266 @@
 &lt;окружение&gt;</t>
   </si>
   <si>
-    <t>1. Главное меню</t>
-  </si>
-  <si>
-    <t>Отображаются все пункты меню</t>
-  </si>
-  <si>
-    <t>Фунциональность команды "Проекты"</t>
-  </si>
-  <si>
-    <t>Фунциональность команды  "Задачи"</t>
-  </si>
-  <si>
-    <t>Фунциональность команды  "Сотрудники"</t>
-  </si>
-  <si>
-    <t>2. Форма "Список проектов"</t>
-  </si>
-  <si>
-    <t>3. Форма "Список задач"</t>
-  </si>
-  <si>
-    <t>4. Форма “Список сотрудников”</t>
-  </si>
-  <si>
-    <t>Отображение всех колонок</t>
-  </si>
-  <si>
-    <t>Функцильность кнопки "Добавить"</t>
-  </si>
-  <si>
-    <t>Функцильность кнопки "Изменить"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удалить запись используя кнопку "Удалить" </t>
-  </si>
-  <si>
-    <t>5. Форма ввода проекта</t>
-  </si>
-  <si>
-    <t>6. Форма ввода задачи</t>
-  </si>
-  <si>
-    <t>7. Форма ввода сотрудника</t>
-  </si>
-  <si>
-    <t>Отображаются все элементы согласно требованиям</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индентификатор формируется автоматически </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индентификатор  нельзя изменить </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Фамилия обязательно для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Имя обязательно для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Отчество обязательно для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Должность обязательно для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сохранить форму корркетно заполнив все обязательные поля </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нажать Сохранить оставив обязательные поля пустыми </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить поле Фамилия  на допустимые значения и их количество </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить поле Имя  на допустимые значения и их количество </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить поле Отчество  на допустимые значения и их количество </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить поле Должность  на допустимые значения и их количество </t>
-  </si>
-  <si>
-    <t>Функцильность команды "Отменить"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыть форму ввода сотрудника в режиме редактирования </t>
+    <t>Главное меню</t>
+  </si>
+  <si>
+    <t>Форма "Список проектов"</t>
+  </si>
+  <si>
+    <t>Форма "Список задач"</t>
+  </si>
+  <si>
+    <t>Форма “Список сотрудников”</t>
+  </si>
+  <si>
+    <t>Форма ввода проекта</t>
+  </si>
+  <si>
+    <t>Форма ввода задачи</t>
+  </si>
+  <si>
+    <t>Форма ввода сотрудника</t>
+  </si>
+  <si>
+    <t>Ковалёва Валерия</t>
+  </si>
+  <si>
+    <t>https://github.com/Lera-Kavaliova/task.webapp</t>
+  </si>
+  <si>
+    <t>Отображение всех пунктов меню</t>
+  </si>
+  <si>
+    <t>Отсутствие ошибки в консоли</t>
+  </si>
+  <si>
+    <t>Переход на форму "Список проектов"</t>
+  </si>
+  <si>
+    <t>Изменение курсора при наведении на команду</t>
+  </si>
+  <si>
+    <t>Пункт меню "Проекты"</t>
+  </si>
+  <si>
+    <t>Пункт меню "Задачи"</t>
+  </si>
+  <si>
+    <t>Пункт меню "Сотрудники"</t>
+  </si>
+  <si>
+    <t>Переход на форму "Список задач"</t>
+  </si>
+  <si>
+    <t>Переход на форму "Список сотрудников"</t>
+  </si>
+  <si>
+    <t>Реакцию команды при наведении</t>
+  </si>
+  <si>
+    <t>Отображение названий колонок</t>
+  </si>
+  <si>
+    <t>Отображение текста об отсутствии записей</t>
+  </si>
+  <si>
+    <t>Команда "Добавить"</t>
+  </si>
+  <si>
+    <t>Команда "Изменить"</t>
+  </si>
+  <si>
+    <t>Отображение добавленных записей содержащих числа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Команда "Удалить" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение добавленных записей содержащих "-", ".", "\" </t>
+  </si>
+  <si>
+    <t>Появление скрола при добавлении заданного количества записей</t>
+  </si>
+  <si>
+    <t>Переход на "Форма ввода сотрудника"</t>
+  </si>
+  <si>
+    <t>Отображение добавленных записей содержащих кириллицу(Нижний и верхний регистр)</t>
+  </si>
+  <si>
+    <t>Отображение добавленных записей содержащих латиницу(Нижний и верхний регистр)</t>
+  </si>
+  <si>
+    <t>Отображение добавленных записей используя максимальное количество символов во всех полях</t>
+  </si>
+  <si>
+    <t>Открытие "Форма ввода сотрудника" в новой вкладке используя колёсико мыши</t>
+  </si>
+  <si>
+    <t>Открытие формы "Список проектов" в новой вкладке используя колёсико мыши</t>
+  </si>
+  <si>
+    <t>Открытие формы "Список задач" в новой вкладке используя колёсико мыши</t>
+  </si>
+  <si>
+    <t>Открытие формы "Список сотрудников" в новой вкладке используя колёсико мыши</t>
+  </si>
+  <si>
+    <t>Открытие "Форма ввода сотрудника" в режиме редактирования в новой вкладке используя колёсико мыши</t>
+  </si>
+  <si>
+    <t>Переход на "Форма ввода сотрудника" в режиме редактирования</t>
+  </si>
+  <si>
+    <t>Удаление последней записи</t>
+  </si>
+  <si>
+    <t>Удаление записи из середины списка</t>
+  </si>
+  <si>
+    <t>Удалить сотрудника, который уже назначен как исполнитель задачи</t>
+  </si>
+  <si>
+    <t>При удалении записи индификаторы других сотрудников не изменяются</t>
+  </si>
+  <si>
+    <t>Переход при быстром многократное нажатие на команду</t>
+  </si>
+  <si>
+    <t>Формирование индентификатора происходит автоматически</t>
+  </si>
+  <si>
+    <t>Изменение идентификатора невозможно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Фамилия является обязательным для заполнения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Имя является обязательным для заполнения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Отчество является обязательным для заполнения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Должность является обязательным для заполнения </t>
+  </si>
+  <si>
+    <t>Поле "Идентификатор"</t>
+  </si>
+  <si>
+    <t>Поле "Фамилия"</t>
+  </si>
+  <si>
+    <t>Поле "Имя"</t>
+  </si>
+  <si>
+    <t>Поле "Отчество"</t>
+  </si>
+  <si>
+    <t>Поле "Должность"</t>
+  </si>
+  <si>
+    <t>Команда "Сохранить"</t>
+  </si>
+  <si>
+    <t>Команда "Отмена"</t>
+  </si>
+  <si>
+    <t>Количество символов больше максимального используя допустимые символы</t>
+  </si>
+  <si>
+    <t>Количество символов меньше минимального используя допустимые символы</t>
+  </si>
+  <si>
+    <t>Недопустимые символы в допустимом диапазоне</t>
+  </si>
+  <si>
+    <t>Масимально допустимое количество символов используя допустимые символы</t>
+  </si>
+  <si>
+    <t>Минимально допустимое количество символов используя допустимые символы</t>
+  </si>
+  <si>
+    <t>Спецсимволы в допустимом диапазоне</t>
+  </si>
+  <si>
+    <t>Оставление поля пустым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение всех элементов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохранение записи корректно заполнив все обязательные поля </t>
+  </si>
+  <si>
+    <t>Сохранение записи заполнив не все обязательные поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохранение записи некорректно заполнив поля </t>
+  </si>
+  <si>
+    <t>Сохранение записи после исправления некорретно заполненных полей</t>
+  </si>
+  <si>
+    <t>Сохранение записи оставив все поля пустыми</t>
+  </si>
+  <si>
+    <t>Переход на форму “Список сотрудников” с заполненными полями для ввода</t>
+  </si>
+  <si>
+    <t>Переход на форму “Список сотрудников” с пустыми полями для ввода</t>
+  </si>
+  <si>
+    <t>Переход на форму “Список сотрудников”с одним незаполеннным полем для ввода</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Форма ввода сотрудника в режиме добавления</t>
+  </si>
+  <si>
+    <t>Форма ввода сотрудника в режиме изменения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удаление пробелов в конце строки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удаление пробелов в начале строки </t>
+  </si>
+  <si>
+    <t>Переход на форму “Список сотрудников” не изменив запись</t>
+  </si>
+  <si>
+    <t>Переход на форму “Список сотрудников” изменив запись</t>
+  </si>
+  <si>
+    <t>Сохранение записи не изменив введённые данные</t>
+  </si>
+  <si>
+    <t>Сохранение записи изменив введённые данные</t>
+  </si>
+  <si>
+    <t>Сохранение записи изменив введённые данные, а затем вернув исходные</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,10 +444,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,30 +478,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor rgb="FFB8CCE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF1F497D"/>
         <bgColor rgb="FF1F497D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -396,32 +564,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,54 +619,68 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -721,93 +922,95 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+      <c r="B3" s="22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1809,16 +2012,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z1077"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.109375" customWidth="1"/>
+    <col min="1" max="1" width="94" customWidth="1"/>
     <col min="2" max="2" width="65.109375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
@@ -1826,21 +2029,21 @@
     <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1864,673 +2067,1567 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="2" spans="1:26" s="20" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+    </row>
+    <row r="3" spans="1:26" s="20" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+    </row>
+    <row r="4" spans="1:26" s="20" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+    </row>
+    <row r="5" spans="1:26" s="39" customFormat="1" ht="14.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+    </row>
+    <row r="6" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+    </row>
+    <row r="7" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+    </row>
+    <row r="8" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+    </row>
+    <row r="9" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+    </row>
+    <row r="10" spans="1:26" s="39" customFormat="1" ht="14.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+    </row>
+    <row r="11" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+    </row>
+    <row r="12" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+    </row>
+    <row r="13" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+    </row>
+    <row r="14" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+    </row>
+    <row r="15" spans="1:26" s="39" customFormat="1" ht="14.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+    </row>
+    <row r="16" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+    </row>
+    <row r="17" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+    </row>
+    <row r="18" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+    </row>
+    <row r="19" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+    </row>
+    <row r="20" spans="1:26" s="20" customFormat="1" ht="14.4" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="20" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+    </row>
+    <row r="52" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-    </row>
-    <row r="8" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+    </row>
+    <row r="54" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:26" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:26" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:26" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:26" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:26" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+    </row>
+    <row r="56" spans="1:26" s="46" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+    <row r="59" spans="1:26" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" s="20" customFormat="1" ht="13.8" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A60" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A64" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A65" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A66" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="36"/>
+    </row>
+    <row r="70" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="36"/>
+    </row>
+    <row r="71" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="36"/>
+    </row>
+    <row r="72" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="36"/>
+    </row>
+    <row r="73" spans="1:2" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A75" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A76" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A78" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A79" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A80" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A83" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A85" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A86" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A88" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A89" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A90" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A91" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A92" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A93" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A94" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A97" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A98" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A99" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A100" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A101" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A102" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A103" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A104" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A105" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A107" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A108" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A109" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="36"/>
+    </row>
+    <row r="111" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A111" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="36"/>
+    </row>
+    <row r="112" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A112" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="32"/>
+      <c r="C112" s="36"/>
+    </row>
+    <row r="113" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A113" s="36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-    </row>
-    <row r="35" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="B113" s="32"/>
+      <c r="C113" s="36"/>
+    </row>
+    <row r="114" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A114" s="36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-    </row>
-    <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="36"/>
+    </row>
+    <row r="115" spans="1:3" s="31" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A116" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A118" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A119" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A120" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A122" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A123" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A124" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A127" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A128" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A129" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A130" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A131" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A132" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A133" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133" s="36"/>
+    </row>
+    <row r="134" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A134" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="36"/>
+    </row>
+    <row r="135" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A135" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" s="36"/>
+    </row>
+    <row r="136" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A136" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B136" s="36"/>
+    </row>
+    <row r="137" spans="1:2" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A138" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A139" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A140" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A141" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A142" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A143" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A144" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A145" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A146" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A147" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A149" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A150" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A151" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A152" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A153" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A154" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A155" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A156" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A157" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A158" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A160" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A161" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A162" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A163" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A164" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A165" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A166" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A167" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A168" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A169" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A171" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A172" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A173" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A174" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A175" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A176" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A177" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B177" s="36"/>
+    </row>
+    <row r="178" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A178" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B178" s="36"/>
+    </row>
+    <row r="179" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A179" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B179" s="32"/>
+      <c r="C179" s="36"/>
+    </row>
+    <row r="180" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A180" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" s="32"/>
+      <c r="C180" s="36"/>
+    </row>
+    <row r="181" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A181" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181" s="32"/>
+      <c r="C181" s="36"/>
+    </row>
+    <row r="182" spans="1:3" s="31" customFormat="1" ht="15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A183" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A184" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A185" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A186" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A187" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A188" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A189" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="20"/>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="20"/>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3331,13 +4428,93 @@
     <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1039" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1040" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1044" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1045" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1046" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1047" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1049" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1050" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1051" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1052" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1053" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1054" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1055" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1059" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1063" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1064" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1065" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1066" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1067" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1068" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1069" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1070" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1071" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1072" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1073" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1074" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1075" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1076" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1077" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A14:Z15">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Чек-лист. Управление задачами.xlsx
+++ b/Чек-лист. Управление задачами.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\task.webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446B1E8-6CD4-43A7-A1ED-177C258222E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CA017B-FE66-4EFC-A563-AE29D93EDC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="151">
   <si>
     <t>Управление задачами - Чек-лист для проведения функционального тестирования</t>
   </si>
@@ -132,18 +132,12 @@
     <t>https://github.com/Lera-Kavaliova/task.webapp</t>
   </si>
   <si>
-    <t>Отображение всех пунктов меню</t>
-  </si>
-  <si>
     <t>Отсутствие ошибки в консоли</t>
   </si>
   <si>
     <t>Переход на форму "Список проектов"</t>
   </si>
   <si>
-    <t>Изменение курсора при наведении на команду</t>
-  </si>
-  <si>
     <t>Пункт меню "Проекты"</t>
   </si>
   <si>
@@ -162,93 +156,30 @@
     <t>Реакцию команды при наведении</t>
   </si>
   <si>
-    <t>Отображение названий колонок</t>
-  </si>
-  <si>
-    <t>Отображение текста об отсутствии записей</t>
-  </si>
-  <si>
     <t>Команда "Добавить"</t>
   </si>
   <si>
     <t>Команда "Изменить"</t>
   </si>
   <si>
-    <t>Отображение добавленных записей содержащих числа</t>
-  </si>
-  <si>
     <t xml:space="preserve">Команда "Удалить" </t>
   </si>
   <si>
-    <t xml:space="preserve">Отображение добавленных записей содержащих "-", ".", "\" </t>
-  </si>
-  <si>
     <t>Появление скрола при добавлении заданного количества записей</t>
   </si>
   <si>
     <t>Переход на "Форма ввода сотрудника"</t>
   </si>
   <si>
-    <t>Отображение добавленных записей содержащих кириллицу(Нижний и верхний регистр)</t>
-  </si>
-  <si>
-    <t>Отображение добавленных записей содержащих латиницу(Нижний и верхний регистр)</t>
-  </si>
-  <si>
-    <t>Отображение добавленных записей используя максимальное количество символов во всех полях</t>
-  </si>
-  <si>
-    <t>Открытие "Форма ввода сотрудника" в новой вкладке используя колёсико мыши</t>
-  </si>
-  <si>
-    <t>Открытие формы "Список проектов" в новой вкладке используя колёсико мыши</t>
-  </si>
-  <si>
-    <t>Открытие формы "Список задач" в новой вкладке используя колёсико мыши</t>
-  </si>
-  <si>
-    <t>Открытие формы "Список сотрудников" в новой вкладке используя колёсико мыши</t>
-  </si>
-  <si>
-    <t>Открытие "Форма ввода сотрудника" в режиме редактирования в новой вкладке используя колёсико мыши</t>
-  </si>
-  <si>
     <t>Переход на "Форма ввода сотрудника" в режиме редактирования</t>
   </si>
   <si>
-    <t>Удаление последней записи</t>
-  </si>
-  <si>
     <t>Удаление записи из середины списка</t>
   </si>
   <si>
-    <t>Удалить сотрудника, который уже назначен как исполнитель задачи</t>
-  </si>
-  <si>
-    <t>При удалении записи индификаторы других сотрудников не изменяются</t>
-  </si>
-  <si>
-    <t>Переход при быстром многократное нажатие на команду</t>
-  </si>
-  <si>
-    <t>Формирование индентификатора происходит автоматически</t>
-  </si>
-  <si>
     <t>Изменение идентификатора невозможно</t>
   </si>
   <si>
-    <t xml:space="preserve">Поле Фамилия является обязательным для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Имя является обязательным для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Отчество является обязательным для заполнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Должность является обязательным для заполнения </t>
-  </si>
-  <si>
     <t>Поле "Идентификатор"</t>
   </si>
   <si>
@@ -270,54 +201,12 @@
     <t>Команда "Отмена"</t>
   </si>
   <si>
-    <t>Количество символов больше максимального используя допустимые символы</t>
-  </si>
-  <si>
-    <t>Количество символов меньше минимального используя допустимые символы</t>
-  </si>
-  <si>
-    <t>Недопустимые символы в допустимом диапазоне</t>
-  </si>
-  <si>
-    <t>Масимально допустимое количество символов используя допустимые символы</t>
-  </si>
-  <si>
-    <t>Минимально допустимое количество символов используя допустимые символы</t>
-  </si>
-  <si>
-    <t>Спецсимволы в допустимом диапазоне</t>
-  </si>
-  <si>
-    <t>Оставление поля пустым</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отображение всех элементов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сохранение записи корректно заполнив все обязательные поля </t>
-  </si>
-  <si>
-    <t>Сохранение записи заполнив не все обязательные поля</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сохранение записи некорректно заполнив поля </t>
-  </si>
-  <si>
-    <t>Сохранение записи после исправления некорретно заполненных полей</t>
-  </si>
-  <si>
-    <t>Сохранение записи оставив все поля пустыми</t>
-  </si>
-  <si>
     <t>Переход на форму “Список сотрудников” с заполненными полями для ввода</t>
   </si>
   <si>
     <t>Переход на форму “Список сотрудников” с пустыми полями для ввода</t>
   </si>
   <si>
-    <t>Переход на форму “Список сотрудников”с одним незаполеннным полем для ввода</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -327,36 +216,294 @@
     <t>Форма ввода сотрудника в режиме изменения</t>
   </si>
   <si>
-    <t xml:space="preserve">Удаление пробелов в конце строки </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удаление пробелов в начале строки </t>
-  </si>
-  <si>
     <t>Переход на форму “Список сотрудников” не изменив запись</t>
   </si>
   <si>
     <t>Переход на форму “Список сотрудников” изменив запись</t>
   </si>
   <si>
-    <t>Сохранение записи не изменив введённые данные</t>
-  </si>
-  <si>
-    <t>Сохранение записи изменив введённые данные</t>
-  </si>
-  <si>
-    <t>Сохранение записи изменив введённые данные, а затем вернув исходные</t>
+    <t>Общие проверки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работу буфера обмена </t>
+  </si>
+  <si>
+    <t>Проверять после создания дизайна</t>
+  </si>
+  <si>
+    <t>Формирование идентификатора происходит автоматически</t>
+  </si>
+  <si>
+    <t>Переход на форму “Список сотрудников "с одним незаполненным полем для ввода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение элементов при уменьшении экрана  </t>
+  </si>
+  <si>
+    <t>Изменение курсора мыши при наведении на команду\поле ввода</t>
+  </si>
+  <si>
+    <t>Возможность копировать и вставлять данные</t>
+  </si>
+  <si>
+    <t>Открытие формы "Список проектов" в новой вкладке</t>
+  </si>
+  <si>
+    <t>Отображение пунктов меню: Проект, Задача, Сотрудник</t>
+  </si>
+  <si>
+    <t>Открытие формы "Список задач" в новой вкладке</t>
+  </si>
+  <si>
+    <t>Колонка "Фамилия"</t>
+  </si>
+  <si>
+    <t>Колонка "Имя"</t>
+  </si>
+  <si>
+    <t>Колонка "Отчество"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колонка "Должность" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колонка "Идентификатор" </t>
+  </si>
+  <si>
+    <t>Сообщение “Список пуст”</t>
+  </si>
+  <si>
+    <t>Отображение названий колонок: Идентификатор, Фамилия, Имя, Отчество, Должность
+                            команд: Добавить, Изменить, Удалить</t>
+  </si>
+  <si>
+    <t>Отображение числового идентификатора</t>
+  </si>
+  <si>
+    <t>Отображение кириллицы(нижний и верхний регистр)</t>
+  </si>
+  <si>
+    <t>Отображение латиницы(нижний и верхний регистр)</t>
+  </si>
+  <si>
+    <t>Отображение чисел</t>
+  </si>
+  <si>
+    <t>Отображение  символа "-"</t>
+  </si>
+  <si>
+    <t>Допустимое количество символов от 2 до 30</t>
+  </si>
+  <si>
+    <t>Ожидается уточнение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение среднего количества символов </t>
+  </si>
+  <si>
+    <t>Допустимое количество символов от 2 до 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение  символа "-" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение  символа "." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение  символа "\" </t>
+  </si>
+  <si>
+    <t>Отображение максимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>Отображение минимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение сообщения при отсутствии записей </t>
+  </si>
+  <si>
+    <t>Переход на  "Форма ввода сотрудника" в новой вкладке</t>
+  </si>
+  <si>
+    <t>Удаление последней запись в списке</t>
+  </si>
+  <si>
+    <t>Удаление единственной записи</t>
+  </si>
+  <si>
+    <t>- По умолчанию- основной курсор мыши. 
+- При наведении на текст и поле ввода - текстовый курсор 
+- При наведении на команду  - поинтер (ладошка)</t>
+  </si>
+  <si>
+    <t>Открытие формы "Список сотрудников" в новой вкладке</t>
+  </si>
+  <si>
+    <t>Открытие "Форма ввода сотрудника" в режиме редактирования в новой вкладке</t>
+  </si>
+  <si>
+    <t>Неизменность идентификаторов других сотрудников при удалении записи</t>
+  </si>
+  <si>
+    <t>Отображение полей: Идентификатор, Фамилия, Имя, Отчество, Должность
+                            команд: Сохранить, Отмена</t>
+  </si>
+  <si>
+    <t>Идентификатор должен соответствовать порядковому номеру записи в системе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обязательность для заполнения </t>
+  </si>
+  <si>
+    <t>Удаление пробелов в начале и конце строки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позитивные проверки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативные проверки </t>
+  </si>
+  <si>
+    <t>Отображение среднего количества символов из допустимого диапазона</t>
+  </si>
+  <si>
+    <t>Отображение максимально допустимого количества символов из допустимого диапазона</t>
+  </si>
+  <si>
+    <t>Чисела</t>
+  </si>
+  <si>
+    <t>Символ "-"</t>
+  </si>
+  <si>
+    <t>Среднее значения символов из доступного диапазона</t>
+  </si>
+  <si>
+    <t>Максимально допустимое количества символов</t>
+  </si>
+  <si>
+    <t>Минимально допустимое количества символов</t>
+  </si>
+  <si>
+    <t>Более максимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>Менее минимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>Пустое поле</t>
+  </si>
+  <si>
+    <t>Символ "."</t>
+  </si>
+  <si>
+    <t>Символ "\"</t>
+  </si>
+  <si>
+    <t>Символ " ' "</t>
+  </si>
+  <si>
+    <t>Только пробелы</t>
+  </si>
+  <si>
+    <t>Среднее из класса "Более допустимого"</t>
+  </si>
+  <si>
+    <t>Спецсимволы  "~!@#$%^&amp;*{}|&gt;&lt;"</t>
+  </si>
+  <si>
+    <t>Спецсимволы  "”№;:?()_+/,;’[]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кириллица(Верхний регистр) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кириллица(Нижний регистр) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латиница(Верхний регистр) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латиница(Нижний регистр) </t>
+  </si>
+  <si>
+    <t>Пробел в середине строки</t>
+  </si>
+  <si>
+    <t>Комбинация буквы+цифры+допустимые символы</t>
+  </si>
+  <si>
+    <t>Допустимые символы: A-Z , a-z , А-Я , а-я , 0-9 , -</t>
+  </si>
+  <si>
+    <t>Допустимые символы: A-Z , a-z , А-Я , а-я , 0-9 , - , . , \</t>
+  </si>
+  <si>
+    <t>Спецсимволы  "”№;:?()_+/\,;’[]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заполнив все обязательные поля </t>
+  </si>
+  <si>
+    <t>Не заполнив все обязательные поля</t>
+  </si>
+  <si>
+    <t>После исправления некорректно заполненных полей</t>
+  </si>
+  <si>
+    <t>Не изменив введённые данные</t>
+  </si>
+  <si>
+    <t>Изменив введённые данные</t>
+  </si>
+  <si>
+    <t>Изменив введённые данные, а затем вернув исходные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корректно заполнив все обязательные поля </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некорректно заполнив поля </t>
+  </si>
+  <si>
+    <t>Все поля пустые</t>
+  </si>
+  <si>
+    <t>Отобрадение новой записи в конце списка</t>
+  </si>
+  <si>
+    <t>Удаление сотрудника, который не назначен как исполнитель задачи</t>
+  </si>
+  <si>
+    <t>Удаление сотрудника, который назначен как исполнитель задачи</t>
+  </si>
+  <si>
+    <t>Удаление сотрудника, при добавлении которого появился скрол</t>
+  </si>
+  <si>
+    <t>Появление сообщения о ошибке</t>
+  </si>
+  <si>
+    <t>Появлние сообщения о ошибке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,8 +609,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,8 +649,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -577,41 +744,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,60 +777,77 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -944,10 +1116,10 @@
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -2012,17 +2184,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1077"/>
+  <dimension ref="A1:Z1208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomLeft" activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="94" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
@@ -2067,9 +2239,9 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" s="20" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="20" customFormat="1" ht="24.6" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2097,1681 +2269,2183 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
     </row>
-    <row r="3" spans="1:26" s="20" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-    </row>
-    <row r="4" spans="1:26" s="20" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="43.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="20" customFormat="1" ht="24.6" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+    </row>
+    <row r="9" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+    </row>
+    <row r="10" spans="1:26" s="32" customFormat="1" ht="14.4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+    </row>
+    <row r="11" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-    </row>
-    <row r="5" spans="1:26" s="39" customFormat="1" ht="14.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+    </row>
+    <row r="12" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+    </row>
+    <row r="13" spans="1:26" s="32" customFormat="1" ht="14.4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+    </row>
+    <row r="14" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+    </row>
+    <row r="15" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" s="32" customFormat="1" ht="14.4" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-    </row>
-    <row r="6" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-    </row>
-    <row r="7" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-    </row>
-    <row r="8" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+    </row>
+    <row r="17" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+    </row>
+    <row r="18" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+    </row>
+    <row r="19" spans="1:26" s="20" customFormat="1" ht="14.4" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+    </row>
+    <row r="24" spans="1:26" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="41"/>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="41"/>
+    </row>
+    <row r="37" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="41"/>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="41"/>
+    </row>
+    <row r="45" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="41"/>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="41"/>
+    </row>
+    <row r="53" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A60" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="41"/>
+    </row>
+    <row r="62" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="41"/>
+    </row>
+    <row r="63" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="41"/>
+    </row>
+    <row r="66" spans="1:26" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-    </row>
-    <row r="9" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    </row>
+    <row r="67" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A71" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A72" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A74" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A75" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A76" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
+    </row>
+    <row r="78" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+    </row>
+    <row r="80" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+    </row>
+    <row r="82" spans="1:26" s="38" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A83" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="20" customFormat="1" ht="13.8" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A85" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A88" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A90" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A91" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A92" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A93" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A94" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A95" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A96" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A98" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A99" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A103" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A104" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A105" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A106" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A107" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A108" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A109" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="26"/>
+    </row>
+    <row r="110" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A110" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="26"/>
+    </row>
+    <row r="111" spans="1:2" ht="13.8" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A111" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="26"/>
+    </row>
+    <row r="112" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A113" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A115" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A116" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A117" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A118" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A119" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A120" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A121" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A122" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A123" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A124" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A126" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A127" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A128" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A129" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A130" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A131" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A132" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A133" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A134" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="26"/>
+    </row>
+    <row r="135" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A135" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="26"/>
+    </row>
+    <row r="136" spans="1:2" ht="13.8" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A136" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="26"/>
+    </row>
+    <row r="137" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A140" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A141" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A142" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A143" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A144" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A145" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A146" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A147" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B147" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A148" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A149" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A151" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A152" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A153" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A154" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A155" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A156" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A157" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A158" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A159" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B159" s="26"/>
+    </row>
+    <row r="160" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A160" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160" s="26"/>
+    </row>
+    <row r="161" spans="1:2" ht="13.8" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A161" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" s="26"/>
+    </row>
+    <row r="162" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A163" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A165" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A166" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A167" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A168" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A169" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A170" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A171" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A172" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A173" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B173" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A174" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A175" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A176" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A178" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B178" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A179" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A180" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A181" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A182" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A183" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A184" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B184" s="26"/>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A185" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B185" s="26"/>
+    </row>
+    <row r="186" spans="1:3" ht="13.8" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A186" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" s="26"/>
+    </row>
+    <row r="187" spans="1:3" s="28" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A188" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A189" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A190" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="26"/>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A191" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B191" s="26"/>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A192" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B192" s="25"/>
+      <c r="C192" s="26"/>
+    </row>
+    <row r="193" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A193" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B193" s="25"/>
+      <c r="C193" s="26"/>
+    </row>
+    <row r="194" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A194" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B194" s="25"/>
+      <c r="C194" s="26"/>
+    </row>
+    <row r="195" spans="1:3" s="28" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A196" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-    </row>
-    <row r="10" spans="1:26" s="39" customFormat="1" ht="14.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-    </row>
-    <row r="11" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-    </row>
-    <row r="12" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-    </row>
-    <row r="13" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-    </row>
-    <row r="14" spans="1:26" s="38" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+    </row>
+    <row r="197" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A197" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-    </row>
-    <row r="15" spans="1:26" s="39" customFormat="1" ht="14.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-    </row>
-    <row r="16" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-    </row>
-    <row r="17" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-    </row>
-    <row r="18" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-    </row>
-    <row r="19" spans="1:26" s="20" customFormat="1" ht="14.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+    </row>
+    <row r="198" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A198" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="38" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B199" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-    </row>
-    <row r="20" spans="1:26" s="20" customFormat="1" ht="14.4" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:26" ht="22.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-    </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+    </row>
+    <row r="200" spans="1:3" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A200" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A202" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A204" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A206" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A207" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A208" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A209" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A210" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A211" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A212" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B212" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A213" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B213" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A214" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A215" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A217" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B217" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A218" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A219" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A220" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A221" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A222" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A223" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A224" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A225" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B225" s="26"/>
+    </row>
+    <row r="226" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A226" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" s="26"/>
+    </row>
+    <row r="227" spans="1:2" ht="13.8" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A227" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B227" s="26"/>
+    </row>
+    <row r="228" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A229" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A231" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A232" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A233" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A234" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A235" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A236" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A237" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A238" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B238" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A239" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A240" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A242" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B242" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A243" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A244" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A245" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A246" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A247" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A248" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A249" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A250" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B250" s="26"/>
+    </row>
+    <row r="251" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A251" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B251" s="26"/>
+    </row>
+    <row r="252" spans="1:2" ht="13.8" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A252" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B252" s="26"/>
+    </row>
+    <row r="253" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+    <row r="254" spans="1:2" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A256" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A257" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A258" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A259" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A260" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A261" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A262" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B262" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A263" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B263" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A264" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A265" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" s="49" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A267" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B267" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A268" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A269" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A270" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A271" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A272" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A273" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A274" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A275" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B275" s="26"/>
+    </row>
+    <row r="276" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A276" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B276" s="26"/>
+    </row>
+    <row r="277" spans="1:2" ht="13.8" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A277" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B277" s="26"/>
+    </row>
+    <row r="278" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+    <row r="279" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A279" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A281" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A282" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A283" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A284" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A285" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A286" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A287" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A288" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A289" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B289" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A290" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B290" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A291" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A292" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A294" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A295" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A296" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A297" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A298" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A299" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A300" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A301" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="A302" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" s="28" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="20" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="304" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A304" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A305" s="41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A306" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A307" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A308" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A309" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A310" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B310" s="26"/>
+    </row>
+    <row r="311" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A311" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B311" s="26"/>
+    </row>
+    <row r="312" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A312" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B312" s="26"/>
+    </row>
+    <row r="313" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A313" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B313" s="25"/>
+      <c r="C313" s="26"/>
+    </row>
+    <row r="314" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A314" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B314" s="25"/>
+      <c r="C314" s="26"/>
+    </row>
+    <row r="315" spans="1:3" s="28" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+    <row r="316" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A316" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
+    <row r="317" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A317" s="42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-    </row>
-    <row r="52" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-    </row>
-    <row r="54" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-    </row>
-    <row r="56" spans="1:26" s="46" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" s="20" customFormat="1" ht="13.8" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A60" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+    <row r="318" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A318" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A319" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A320" s="42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A66" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="36"/>
-    </row>
-    <row r="70" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A70" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="36"/>
-    </row>
-    <row r="71" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="36"/>
-    </row>
-    <row r="72" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="36"/>
-    </row>
-    <row r="73" spans="1:2" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A75" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A76" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A77" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A83" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A86" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A87" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A88" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A89" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A90" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A91" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A93" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A94" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A97" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A98" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A99" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A100" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A101" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A102" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A103" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A104" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A105" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A107" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A108" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A109" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A110" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B110" s="36"/>
-    </row>
-    <row r="111" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A111" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" s="36"/>
-    </row>
-    <row r="112" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A112" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="32"/>
-      <c r="C112" s="36"/>
-    </row>
-    <row r="113" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A113" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="36"/>
-    </row>
-    <row r="114" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A114" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" s="32"/>
-      <c r="C114" s="36"/>
-    </row>
-    <row r="115" spans="1:3" s="31" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A116" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A117" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A118" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A119" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A120" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A122" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A123" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A124" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A125" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A127" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A128" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A129" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A130" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A133" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B133" s="36"/>
-    </row>
-    <row r="134" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A134" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" s="36"/>
-    </row>
-    <row r="135" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A135" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B135" s="36"/>
-    </row>
-    <row r="136" spans="1:2" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A136" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="36"/>
-    </row>
-    <row r="137" spans="1:2" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A138" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A139" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A140" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A141" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A142" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A143" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A145" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A146" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A147" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A149" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A150" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A151" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A152" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A153" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A154" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A155" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A156" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A157" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A158" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A160" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A161" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A162" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A163" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A164" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A165" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A166" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A167" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A168" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A169" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" s="31" customFormat="1" ht="14.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A171" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A172" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A173" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A174" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A175" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A176" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A177" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B177" s="36"/>
-    </row>
-    <row r="178" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A178" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B178" s="36"/>
-    </row>
-    <row r="179" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A179" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B179" s="32"/>
-      <c r="C179" s="36"/>
-    </row>
-    <row r="180" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A180" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B180" s="32"/>
-      <c r="C180" s="36"/>
-    </row>
-    <row r="181" spans="1:3" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A181" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B181" s="32"/>
-      <c r="C181" s="36"/>
-    </row>
-    <row r="182" spans="1:3" s="31" customFormat="1" ht="15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A183" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A184" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A185" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A186" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A187" s="34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A188" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A189" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="20"/>
-    </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="20"/>
-    </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="20"/>
+    </row>
+    <row r="322" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="20"/>
+    </row>
+    <row r="323" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="41"/>
+    </row>
+    <row r="326" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4513,6 +5187,137 @@
     <row r="1075" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1076" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1077" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1078" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1079" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1080" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1081" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1082" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1083" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1084" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1085" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1086" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1087" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1088" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1089" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1090" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1091" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1092" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1093" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1094" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1095" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1096" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1097" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1098" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1099" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
